--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTobin\Documents\Project Fenrir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTobin\Documents\Project-Fenrir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="140">
   <si>
     <t>Creature Type</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>When you look into the abyss you can never know what is looking back. This Demonic Beast is shrouded in darkness so its form is never been seen except by the exiled god.</t>
+  </si>
+  <si>
+    <t>No known information</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1079,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,8 +1193,22 @@
       <c r="E5">
         <v>380</v>
       </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" t="s">
         <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1452,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,6 +1539,9 @@
       </c>
       <c r="D11">
         <v>5671</v>
+      </c>
+      <c r="L11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2364,7 +2387,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="143">
   <si>
     <t>Creature Type</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Dunwitch Horror</t>
   </si>
   <si>
-    <t>Dream Stalk</t>
-  </si>
-  <si>
     <t>Boss</t>
   </si>
   <si>
@@ -459,6 +456,18 @@
   </si>
   <si>
     <t>No known information</t>
+  </si>
+  <si>
+    <t>Dream Stalker</t>
+  </si>
+  <si>
+    <t>Normally hidden in the shadows of dark alleyways. They will not attack large groups of people but will mimic the sound of a hurt child to attract people before attacking.</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spirit of flame corupted by a creature from the wastes. </t>
   </si>
 </sst>
 </file>
@@ -808,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -816,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -825,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -833,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -842,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -859,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -881,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -895,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -909,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
@@ -920,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
@@ -931,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>9</v>
@@ -942,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
         <v>10</v>
@@ -953,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -964,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>12</v>
@@ -975,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -989,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1035,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1046,22 +1055,22 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1086,7 +1095,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1106,7 +1115,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1117,27 +1126,27 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>3795</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1177,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1188,27 +1197,27 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,13 +1257,13 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1262,22 +1271,22 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>438</v>
       </c>
       <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" t="s">
         <v>136</v>
-      </c>
-      <c r="I5" t="s">
-        <v>137</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1317,7 +1326,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1328,22 +1337,22 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>516</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1372,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1383,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1394,30 +1403,30 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>590</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1472,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1509,7 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -1541,12 +1550,12 @@
         <v>5671</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>7362</v>
@@ -1554,10 +1563,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D15">
         <v>8590</v>
@@ -1572,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1600,7 +1609,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1611,57 +1620,83 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>547</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>482</v>
       </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>394</v>
       </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>260</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>465</v>
       </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
       <c r="K13" t="s">
         <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1713,67 +1748,67 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>632</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>800</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>656</v>
@@ -1782,56 +1817,56 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>830</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>2300</v>
       </c>
       <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
         <v>116</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
         <v>117</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1906,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1882,100 +1917,100 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>520</v>
       </c>
       <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
         <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>3500</v>
       </c>
       <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>48527</v>
@@ -1984,18 +2019,18 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2036,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -2047,62 +2082,62 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>349</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>382</v>
@@ -2113,7 +2148,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>670</v>
@@ -2124,43 +2159,43 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>3000</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>780</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>873600</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>1780</v>
@@ -2206,7 +2241,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -2217,49 +2252,49 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>845</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>937</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>7140</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2300,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -2313,7 +2348,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2322,7 +2357,7 @@
         <v>24300</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2333,7 +2368,7 @@
         <v>14400</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2344,7 +2379,7 @@
         <v>613540</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2355,7 +2390,7 @@
         <v>52130</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2366,15 +2401,15 @@
         <v>17850</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2429,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2414,7 +2449,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -2425,71 +2460,71 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>315</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>4740</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>13846</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
   <si>
     <t>Creature Type</t>
   </si>
@@ -468,6 +468,36 @@
   </si>
   <si>
     <t xml:space="preserve">A spirit of flame corupted by a creature from the wastes. </t>
+  </si>
+  <si>
+    <t>Unlike shades the banshee can adapt to any eviorment, without being corrupted. This banshee has the attributes of fire and shadow.</t>
+  </si>
+  <si>
+    <t>These spirits literaly poured their souls into their creations, so munch so that upon its completion they died.</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Soon after its body's death the soul was captured and tortured for centeries in the relm of Wastes, before being unlessed upon the world.</t>
+  </si>
+  <si>
+    <t>All who have been consumed by the mist either become one with it or are warpped into a mindless Wasteland creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emit gninnur tuo. ti t'ndluosh eb. RUN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victory: </t>
+  </si>
+  <si>
+    <t>Created by the mist. No other known information.</t>
+  </si>
+  <si>
+    <t>Defeat: All that begins must end. Move backward to go forward it all must end.</t>
   </si>
 </sst>
 </file>
@@ -804,7 +834,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +952,9 @@
       </c>
       <c r="N9" t="s">
         <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1479,20 +1512,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1525,43 +1558,87 @@
       <c r="D5">
         <v>680</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="D7">
         <v>732</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="D9">
         <v>893</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="D11">
         <v>5671</v>
       </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
       <c r="L11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>139</v>
       </c>
       <c r="D13">
         <v>7362</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1570,6 +1647,24 @@
       </c>
       <c r="D15">
         <v>8590</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1581,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,8 +1720,22 @@
       <c r="E5">
         <v>547</v>
       </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
       <c r="K5" t="s">
         <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,11 +1770,17 @@
       <c r="E9">
         <v>394</v>
       </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" t="s">
         <v>115</v>
       </c>
       <c r="K9" t="s">
         <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1675,8 +1790,22 @@
       <c r="E11">
         <v>260</v>
       </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
       <c r="K11" t="s">
         <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
   <si>
     <t>Creature Type</t>
   </si>
@@ -497,7 +497,22 @@
     <t>Created by the mist. No other known information.</t>
   </si>
   <si>
-    <t>Defeat: All that begins must end. Move backward to go forward it all must end.</t>
+    <t>Defeat: All that begins must end. Move backward to go forward and find the truth.</t>
+  </si>
+  <si>
+    <t>Beware then disturbences in your dreams</t>
+  </si>
+  <si>
+    <t>Those who are weak minded will fall victum to the beings control.</t>
+  </si>
+  <si>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>This God of fire is easy to anger. It is believed that he is the source all fire including the acursid flame.</t>
   </si>
 </sst>
 </file>
@@ -834,7 +849,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1015,9 @@
       <c r="N13" t="s">
         <v>109</v>
       </c>
+      <c r="P13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1010,6 +1028,9 @@
       </c>
       <c r="N14" t="s">
         <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1514,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1588,9 @@
       <c r="J5" t="s">
         <v>79</v>
       </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1600,6 +1624,12 @@
       <c r="D9">
         <v>893</v>
       </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
       <c r="J9" t="s">
         <v>79</v>
       </c>
@@ -1634,8 +1664,17 @@
       <c r="D13">
         <v>7362</v>
       </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" t="s">
         <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2434,20 +2473,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2458,24 +2497,27 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2485,59 +2527,110 @@
       <c r="E7">
         <v>24300</v>
       </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
         <v>14400</v>
       </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
       <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
         <v>613540</v>
       </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
       <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="E13">
         <v>52130</v>
       </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
       <c r="K13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="E15">
         <v>17850</v>
       </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
       <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
         <v>82</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
         <v>119</v>
       </c>
     </row>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="165">
   <si>
     <t>Creature Type</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Fire God Enracu</t>
   </si>
   <si>
-    <t>Sea God Friga</t>
-  </si>
-  <si>
     <t>Neratie, Godess of Wind</t>
   </si>
   <si>
@@ -512,7 +509,31 @@
     <t>Lightning</t>
   </si>
   <si>
-    <t>This God of fire is easy to anger. It is believed that he is the source all fire including the acursid flame.</t>
+    <t>Sea Godess Friga</t>
+  </si>
+  <si>
+    <t>This god of fire is easy to anger. It is believed that he is the source all fire including the acursid flame.</t>
+  </si>
+  <si>
+    <t>This godess is the ruler of the ocean and has controle of most that dwell within it.</t>
+  </si>
+  <si>
+    <t>One of the first gods it has has complete contol over the wind. Its shrine is contained within the acient temple on Mt. Jorema.</t>
+  </si>
+  <si>
+    <t>~x</t>
+  </si>
+  <si>
+    <t>Born from generations of a large snake species living near molten rock its skin consists of a substance similar to the molten rock of its home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It scorches most that touches it in a instant. However, if cooled it hardens to be stronger than steel making it near untouchable, but also slows its movement imencly.</t>
+  </si>
+  <si>
+    <t>One of the first creatures of the sea this serpent has scales harder than any earthly metal.</t>
+  </si>
+  <si>
+    <t>Its breath is deadly posion that could melt an entire city with a single breath and kill a lesser god with a single drop in its most potent form.</t>
   </si>
 </sst>
 </file>
@@ -849,7 +870,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -870,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -879,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -887,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -896,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -904,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -913,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -921,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -935,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -949,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -963,13 +984,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -977,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
@@ -988,10 +1009,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
         <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -999,10 +1023,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
         <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1010,13 +1037,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1024,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
         <v>12</v>
       </c>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1038,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1052,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1078,53 +1105,53 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1139,68 +1166,105 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>384</v>
       </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
       <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7">
+      <c r="M6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8">
         <v>3795</v>
       </c>
-      <c r="K7" t="s">
-        <v>66</v>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1220,58 +1284,58 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1291,56 +1355,56 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>438</v>
       </c>
       <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
-      </c>
-      <c r="I5" t="s">
-        <v>136</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1360,53 +1424,53 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>516</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1426,61 +1490,61 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>590</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1500,30 +1564,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1543,167 +1607,167 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="D5">
         <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>732</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>893</v>
       </c>
       <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>5671</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>7362</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D15">
         <v>8590</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
         <v>149</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1723,148 +1787,148 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>547</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>482</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>394</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>465</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1885,98 +1949,98 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>632</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>800</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>656</v>
@@ -1985,56 +2049,56 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>830</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>2300</v>
       </c>
       <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
         <v>116</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2054,131 +2118,131 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>520</v>
       </c>
       <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>3500</v>
       </c>
       <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>122</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>48527</v>
@@ -2187,18 +2251,18 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2219,93 +2283,93 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>349</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>382</v>
@@ -2316,7 +2380,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>670</v>
@@ -2327,43 +2391,43 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>3000</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>780</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>873600</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <v>1780</v>
@@ -2382,87 +2446,87 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>845</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>937</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>7140</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2475,51 +2539,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2528,16 +2592,16 @@
         <v>24300</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>157</v>
@@ -2545,93 +2609,99 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>14400</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
         <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <v>613540</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>52130</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>17850</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2651,102 +2721,102 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>315</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>4740</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15">
         <v>13846</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
   <si>
     <t>Creature Type</t>
   </si>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>Its breath is deadly posion that could melt an entire city with a single breath and kill a lesser god with a single drop in its most potent form.</t>
+  </si>
+  <si>
+    <t>As storms of fire and ash form around the plains. These dragons are located at the heart of it spuring the storm with destructive power.</t>
+  </si>
+  <si>
+    <t>A rare species of dragon. Its wings glow with dark red embers and scorching fire.</t>
+  </si>
+  <si>
+    <t>This drake has claws hot enough to melt steel making it easier to find them by following the melted earth.</t>
+  </si>
+  <si>
+    <t>Caelumanura has the power of the cosmos at its disposal</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -2445,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2501,21 @@
       <c r="E5">
         <v>930</v>
       </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
       <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2500,8 +2526,17 @@
       <c r="E7">
         <v>845</v>
       </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
       <c r="K7" t="s">
         <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2511,8 +2546,17 @@
       <c r="E9">
         <v>937</v>
       </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
       <c r="K9" t="s">
         <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2525,8 +2569,17 @@
       <c r="E11">
         <v>7140</v>
       </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
       <c r="K11" t="s">
         <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="180">
   <si>
     <t>Creature Type</t>
   </si>
@@ -546,6 +546,39 @@
   </si>
   <si>
     <t>Caelumanura has the power of the cosmos at its disposal</t>
+  </si>
+  <si>
+    <t>What happens when you combine animation magic with volatile molten rock? This is what happens.</t>
+  </si>
+  <si>
+    <t>Fire may normal be your friend against constructs but that would be a bad idea in this case. Just think about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some were used for storing valuables others as children's toy. This one belonged to a man who's mind that had long been lost to madness. Who knows what it contains. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple dwarven automiton. It is designed for menial labor such as moving materials or debris. </t>
+  </si>
+  <si>
+    <t>However, like most dwarven automiton, it is also designed to function for basic security.</t>
+  </si>
+  <si>
+    <t>Shaped from meteoric iron and a fragment of an ancient drake's soul. This humanoid construct has as much controle over fire as that of the ancient dragons.</t>
+  </si>
+  <si>
+    <t>The origins of this terrible blade is not known by any. Not even the oldest and wisest gods know its origin. Those who have encountered this blade and lived have lost there minds.</t>
+  </si>
+  <si>
+    <t>All that is known from these mad ramblings is that the Blade holds a power that can slay a god permanently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The greatest of the dwarven creators, this title has been passed from one to another when the previous holder dies. </t>
+  </si>
+  <si>
+    <t>Though not very strong in a fight the forge master can utilize their creations to defend themselves. They are the only ones able to use the True Forge.</t>
+  </si>
+  <si>
+    <t>How a Human became the Bringer of Chaos is unknown. The very wastes themselves bend to his will, as he himself is subject to the wastes power.</t>
   </si>
 </sst>
 </file>
@@ -882,7 +915,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,6 +995,9 @@
       <c r="N6" t="s">
         <v>4</v>
       </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -976,6 +1012,9 @@
       <c r="N7" t="s">
         <v>5</v>
       </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1014,6 +1053,9 @@
       </c>
       <c r="N10" t="s">
         <v>8</v>
+      </c>
+      <c r="P10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2285,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>73</v>
       </c>
@@ -2401,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2411,41 +2453,84 @@
       <c r="E19">
         <v>3000</v>
       </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="E21">
         <v>780</v>
       </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
       <c r="K21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="M21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>873600</v>
       </c>
-      <c r="K23" t="s">
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="M24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1780</v>
       </c>
-      <c r="K25" t="s">
+      <c r="G26" t="s">
         <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2764,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J29" sqref="J29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,8 +2895,22 @@
       <c r="E5">
         <v>315</v>
       </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
       <c r="K5" t="s">
         <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,55 +2920,113 @@
       <c r="E7">
         <v>130</v>
       </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="M7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>220</v>
       </c>
-      <c r="K9" t="s">
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>400</v>
       </c>
-      <c r="K11" t="s">
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>4740</v>
       </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>13846</v>
       </c>
-      <c r="K15" t="s">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
         <v>78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="696"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="193">
   <si>
     <t>Creature Type</t>
   </si>
@@ -545,9 +545,6 @@
     <t>This drake has claws hot enough to melt steel making it easier to find them by following the melted earth.</t>
   </si>
   <si>
-    <t>Caelumanura has the power of the cosmos at its disposal</t>
-  </si>
-  <si>
     <t>What happens when you combine animation magic with volatile molten rock? This is what happens.</t>
   </si>
   <si>
@@ -572,13 +569,55 @@
     <t>All that is known from these mad ramblings is that the Blade holds a power that can slay a god permanently.</t>
   </si>
   <si>
-    <t xml:space="preserve">The greatest of the dwarven creators, this title has been passed from one to another when the previous holder dies. </t>
-  </si>
-  <si>
-    <t>Though not very strong in a fight the forge master can utilize their creations to defend themselves. They are the only ones able to use the True Forge.</t>
-  </si>
-  <si>
     <t>How a Human became the Bringer of Chaos is unknown. The very wastes themselves bend to his will, as he himself is subject to the wastes power.</t>
+  </si>
+  <si>
+    <t>One of the generals of the Shadow Kingdom. He leads the Blades of Darkness, the kingdoms special forces. He keeps a close eye on what he thinks could be a threat to the kingdom.</t>
+  </si>
+  <si>
+    <t>Many in the Kingdom have the ability to manipulate shadows for use as temparary tools. However some have the ability to use the shadows as a cloak. They are known to be natorius thieves.</t>
+  </si>
+  <si>
+    <t>Though not very strong in a fight the forge master can utilize their creations to defend themselves. They are the ONLY one able to use the True Forge.</t>
+  </si>
+  <si>
+    <t>The guards of the shadow kingdom who have sworn themselves to the King and his Generals. They protect the kingdom and its people. Once sworn to a guard, you are as such for life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The greatest of the dwarven and human creators, this title has been passed from one to another when the previous holder dies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very few are permited to use the Ancient Forge. Those who are may take on one assistant to help with their work. </t>
+  </si>
+  <si>
+    <t>These assistants are infamous for use the forge and as punishment have an insignia scorched onto their forehead preventing them from shaping metal again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken over by a rage demon. Shaman normally have a resistance to possession but, many as of late have been possessed for some unknown reason. </t>
+  </si>
+  <si>
+    <t>They use a long staff like stick to use spiritual magic and to swat at any nearby creature.</t>
+  </si>
+  <si>
+    <t>These hunters are used to living in harsh conditions and take preperations to help protect them from the elements focusing on the regions elemental typing.</t>
+  </si>
+  <si>
+    <t>However, do be mistaken they would rather see the city fall than the Eternal Flame be extinguised, and would do so themselves if required.</t>
+  </si>
+  <si>
+    <t>With blades soaked in the Eternal Flame. These knights have sworn their lives to protecting the flame and the kingdom it is held within. Many see them as guardians of the Kingdom of Fire.</t>
+  </si>
+  <si>
+    <t>When a Flame Knight wants to leave their post they must place their left arm in the Eternal Flame leaving it scorched. They are then evicted from the flame knights and are no longer allowed near the Capital or the Eternal Flame.</t>
+  </si>
+  <si>
+    <t>Under the current situation the bastard sons of the king are in line to take over the Kingdom of Fire when their father dies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legend has it that Caelumanura used an unknown magic to stop the moon from falling to the earth leaving it eternaly suspended in a single spot.</t>
+  </si>
+  <si>
+    <t>Caelumanura was created long before the world. It has the power to control the stars themselves. Its acolites worship it on top of the highest peak in hopes of being enlighted.</t>
   </si>
 </sst>
 </file>
@@ -914,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1028,6 +1067,9 @@
       </c>
       <c r="N8" t="s">
         <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2327,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,8 +2415,22 @@
       <c r="E5">
         <v>500</v>
       </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
       <c r="K5" t="s">
         <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2384,152 +2440,233 @@
       <c r="E7">
         <v>260</v>
       </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>290</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>349</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="K13" t="s">
+      <c r="G14" t="s">
         <v>53</v>
       </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15">
-        <v>382</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17">
-        <v>670</v>
+        <v>382</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>670</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>3000</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
         <v>65</v>
       </c>
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21">
-        <v>780</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
       <c r="M22" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>780</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>873600</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G27" t="s">
         <v>134</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I27" t="s">
         <v>123</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K27" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="M27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>1780</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
+      <c r="M29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2540,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,7 +2801,12 @@
         <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +3047,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2930,12 +3072,12 @@
         <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2955,7 +3097,7 @@
         <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2975,7 +3117,7 @@
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2998,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3018,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
@@ -3026,7 +3168,7 @@
         <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="194">
   <si>
     <t>Creature Type</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Light</t>
   </si>
   <si>
-    <t xml:space="preserve">A spirit of flame corupted by a creature from the wastes. </t>
-  </si>
-  <si>
     <t>Unlike shades the banshee can adapt to any eviorment, without being corrupted. This banshee has the attributes of fire and shadow.</t>
   </si>
   <si>
@@ -618,6 +615,12 @@
   </si>
   <si>
     <t>Caelumanura was created long before the world. It has the power to control the stars themselves. Its acolites worship it on top of the highest peak in hopes of being enlighted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spirit of flame corrupted by a creature from the wastes. </t>
+  </si>
+  <si>
+    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -951,15 +954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +972,16 @@
       <c r="N1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -986,8 +997,11 @@
       <c r="P3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1003,8 +1017,11 @@
       <c r="P4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1020,8 +1037,11 @@
       <c r="P5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1037,8 +1057,11 @@
       <c r="P6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1097,11 @@
       <c r="P8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1114,11 @@
       <c r="P9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1131,11 @@
       <c r="P10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1148,11 @@
       <c r="P11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1125,10 +1163,16 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1141,8 +1185,11 @@
       <c r="P13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1155,8 +1202,11 @@
       <c r="P14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1169,8 +1219,11 @@
       <c r="P15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1181,6 +1234,9 @@
         <v>14</v>
       </c>
       <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1318,7 +1374,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1326,7 +1382,7 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1349,7 +1405,7 @@
         <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1360,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1805,7 @@
         <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1769,7 +1825,7 @@
         <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1794,7 +1850,7 @@
         <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1834,7 +1890,7 @@
         <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1857,13 +1913,13 @@
         <v>59</v>
       </c>
       <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
         <v>148</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1932,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,18 +1979,18 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1979,7 +2035,7 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,7 +2055,7 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2425,12 +2481,12 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2450,15 +2506,15 @@
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2478,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2498,7 +2554,7 @@
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2518,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2526,7 +2582,7 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2540,13 +2596,13 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2566,7 +2622,7 @@
         <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2589,12 +2645,12 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2614,7 +2670,7 @@
         <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2622,7 +2678,7 @@
         <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2642,7 +2698,7 @@
         <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2662,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2733,7 +2789,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2758,7 +2814,7 @@
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2778,7 +2834,7 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2801,12 +2857,12 @@
         <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2897,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2884,7 +2940,7 @@
         <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2909,7 +2965,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>613540</v>
@@ -2927,7 +2983,7 @@
         <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2944,13 +3000,13 @@
         <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3047,7 +3103,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3072,12 +3128,12 @@
         <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3097,7 +3153,7 @@
         <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3117,7 +3173,7 @@
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3140,7 +3196,7 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3160,7 +3216,7 @@
         <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
@@ -3168,7 +3224,7 @@
         <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info spread sheet.xlsx
+++ b/Game Info spread sheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="195">
   <si>
     <t>Creature Type</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Rage Demon</t>
   </si>
   <si>
-    <t>Terrifing Bunny of The Pit</t>
-  </si>
-  <si>
     <t>Demon of The Forge</t>
   </si>
   <si>
@@ -467,18 +464,12 @@
     <t>Unlike shades the banshee can adapt to any eviorment, without being corrupted. This banshee has the attributes of fire and shadow.</t>
   </si>
   <si>
-    <t>These spirits literaly poured their souls into their creations, so munch so that upon its completion they died.</t>
-  </si>
-  <si>
     <t>Corruption</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>Soon after its body's death the soul was captured and tortured for centeries in the relm of Wastes, before being unlessed upon the world.</t>
-  </si>
-  <si>
     <t>All who have been consumed by the mist either become one with it or are warpped into a mindless Wasteland creature.</t>
   </si>
   <si>
@@ -621,6 +612,18 @@
   </si>
   <si>
     <t>transfer</t>
+  </si>
+  <si>
+    <t>Terrifying Bunny of The Pit</t>
+  </si>
+  <si>
+    <t>Soon after its body's death the soul was captured and tortured for centeries in the realm of Wastes, before being unleashed upon the world.</t>
+  </si>
+  <si>
+    <t>In life, these spirits literaly poured their souls into their creations, so munch so that upon its completion they died.</t>
+  </si>
+  <si>
+    <t>resistence</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,15 +973,21 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
       </c>
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="R2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -986,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -995,10 +1004,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1006,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1015,10 +1027,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1026,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1035,10 +1050,13 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1046,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1055,10 +1073,13 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1066,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1075,10 +1096,13 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1086,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -1095,10 +1119,13 @@
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1106,16 +1133,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1123,16 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1140,16 +1173,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
         <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1157,19 +1193,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1177,16 +1213,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1194,16 +1233,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
         <v>12</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1211,16 +1253,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1228,16 +1273,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="R16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1305,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1288,7 +1336,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>240</v>
@@ -1297,13 +1345,13 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1328,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1359,7 +1407,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>384</v>
@@ -1368,13 +1416,13 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1382,7 +1430,7 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1390,33 +1438,33 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>3795</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1467,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>380</v>
@@ -1482,12 +1530,12 @@
         <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1533,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1541,22 +1589,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>438</v>
       </c>
       <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
         <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1607,22 +1655,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>516</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,7 +1721,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>590</v>
@@ -1682,21 +1730,21 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1796,16 +1844,16 @@
         <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1819,18 +1867,18 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1847,10 +1895,10 @@
         <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1861,21 +1909,21 @@
         <v>5671</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13">
         <v>7362</v>
@@ -1884,13 +1932,13 @@
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1904,22 +1952,22 @@
         <v>8590</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" t="s">
         <v>147</v>
       </c>
-      <c r="Q15" t="s">
-        <v>150</v>
-      </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1980,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,18 +2027,18 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2001,21 +2049,21 @@
         <v>482</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2026,16 +2074,16 @@
         <v>394</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,7 +2103,7 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2074,13 +2122,13 @@
         <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2142,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,13 +2189,13 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2161,24 +2209,24 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="E9">
         <v>800</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
         <v>52</v>
@@ -2187,12 +2235,12 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>656</v>
@@ -2201,13 +2249,13 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
         <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2215,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>830</v>
@@ -2230,27 +2278,27 @@
         <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>2300</v>
       </c>
       <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
         <v>114</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
         <v>115</v>
-      </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2349,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -2310,23 +2358,23 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>300</v>
@@ -2335,38 +2383,38 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
         <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>520</v>
       </c>
       <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
         <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2374,7 +2422,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>3500</v>
@@ -2383,18 +2431,18 @@
         <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
         <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>48527</v>
@@ -2403,18 +2451,18 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2514,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -2475,23 +2523,23 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>260</v>
@@ -2500,26 +2548,26 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>290</v>
@@ -2528,24 +2576,24 @@
         <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>349</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -2554,12 +2602,12 @@
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2568,13 +2616,13 @@
         <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2582,12 +2630,12 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>382</v>
@@ -2596,18 +2644,18 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>670</v>
@@ -2616,13 +2664,13 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2630,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>3000</v>
@@ -2639,23 +2687,23 @@
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>780</v>
@@ -2664,13 +2712,13 @@
         <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s">
         <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,32 +2726,32 @@
         <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>873600</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>1780</v>
@@ -2718,12 +2766,12 @@
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2774,22 +2822,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>930</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2799,7 +2847,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>845</v>
@@ -2814,12 +2862,12 @@
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>937</v>
@@ -2834,7 +2882,7 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,27 +2890,27 @@
         <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>7140</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2931,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2897,7 +2945,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2931,16 +2979,16 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
         <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2954,7 +3002,7 @@
         <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
@@ -2965,25 +3013,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>613540</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2994,19 +3042,19 @@
         <v>52130</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
         <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3017,27 +3065,27 @@
         <v>17850</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3105,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3088,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>315</v>
@@ -3097,13 +3145,13 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3113,13 +3161,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
         <v>52</v>
@@ -3128,37 +3176,37 @@
         <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3167,13 +3215,13 @@
         <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3181,7 +3229,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>4740</v>
@@ -3190,18 +3238,18 @@
         <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>13846</v>
@@ -3210,21 +3258,21 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
